--- a/public/data/soil/soil_table_guinea_bissau.xlsx
+++ b/public/data/soil/soil_table_guinea_bissau.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -743,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3553.5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5161.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2724.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11345.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4287.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4086.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>469.7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5511.5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1079.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.8</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3614.1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>301.7</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>314.7</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>808.4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>377.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1346.1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>360.3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1198,16 +1198,16 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>436.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12563.9</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>211.9</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>527.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.781</v>
@@ -1233,16 +1233,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>930.1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>314.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>543.8</v>
       </c>
       <c r="H16" t="n">
         <v>7.106</v>
@@ -1268,10 +1268,10 @@
         <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2225.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>118.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>910.9</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2835.2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5278.9</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1408,16 +1408,16 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2740.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>64.2</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="H21" t="n">
         <v>11.769</v>
@@ -1443,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9848.9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4912.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1276.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4984.3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4251.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5648.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1209.8</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1734.2</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>211.9</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>661.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12946</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2448.2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1004.7</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2573.9</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>318.3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1723,16 +1723,16 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1157.7</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1610.2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>228.3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>377.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7363.2</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2720.6</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4998.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2595.7</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>69</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6806.3</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3279.3</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1693.7</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>72</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9071.9</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
